--- a/src/main/resources/xls/charging_roaming_fee.xlsx
+++ b/src/main/resources/xls/charging_roaming_fee.xlsx
@@ -2691,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e0247405-19f5-4ca6-93e3-925e965cab04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d8272783-c49e-45bb-b86d-f55ef2efffac}">
   <dimension ref="A1:DB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/src/main/resources/xls/charging_roaming_fee.xlsx
+++ b/src/main/resources/xls/charging_roaming_fee.xlsx
@@ -2691,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d8272783-c49e-45bb-b86d-f55ef2efffac}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588bc244-3132-4cd0-9195-8142f40cc922}">
   <dimension ref="A1:DB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/src/main/resources/xls/charging_roaming_fee.xlsx
+++ b/src/main/resources/xls/charging_roaming_fee.xlsx
@@ -1708,9 +1708,9 @@
    31 ~   100kW       0원</t>
   </si>
   <si>
-    <t xml:space="preserve">    1 ~     7kW     260원
-    8 ~    30kW     280원
-   31 ~    50kW     320원</t>
+    <t xml:space="preserve">    1 ~    29kW     260원
+   30 ~    49kW     280원
+   50 ~   999kW     320원</t>
   </si>
   <si>
     <t xml:space="preserve">    1 ~    30kW   324.4원</t>
@@ -1883,9 +1883,8 @@
     <t xml:space="preserve">    1 ~    30kW     278원</t>
   </si>
   <si>
-    <t xml:space="preserve">    0 ~    29kW     297원
-   30 ~    50kW     324원
-   51 ~   240kW     347원</t>
+    <t xml:space="preserve">    0 ~    39kW   324.4원
+   40 ~   400kW   347.2원</t>
   </si>
   <si>
     <t xml:space="preserve">    0 ~    49kW     380원
@@ -1900,8 +1899,9 @@
    30 ~   999kW     450원</t>
   </si>
   <si>
-    <t xml:space="preserve">    7 ~    49kW     300원
-   50 ~   200kW     400원</t>
+    <t xml:space="preserve">    7 ~    49kW   227.5 ~  270.9원
+   50 ~    99kW   324.4 ~  324.4원
+  100 ~   999kW   347.2 ~  347.2원</t>
   </si>
   <si>
     <t xml:space="preserve">    1 ~    29kW     300원
@@ -2049,7 +2049,7 @@
     <t xml:space="preserve">    0 ~     7kW     289원</t>
   </si>
   <si>
-    <t xml:space="preserve">    0 ~    11kW     220원</t>
+    <t xml:space="preserve">    0 ~    11kW     255원</t>
   </si>
   <si>
     <t xml:space="preserve">    0 ~    49kW     360원
@@ -2081,7 +2081,7 @@
     8 ~    50kW     324원</t>
   </si>
   <si>
-    <t xml:space="preserve">    0 ~    49kW     215원
+    <t xml:space="preserve">    0 ~    49kW     255원
    50 ~    99kW   324.4원
   100 ~   200kW   347.2원</t>
   </si>
@@ -2132,11 +2132,8 @@
    50 ~ 99999kW     400원</t>
   </si>
   <si>
-    <t xml:space="preserve">    5 ~     7kW     330원
-    8 ~    39kW     330원
-   40 ~    50kW     350원
-   51 ~   100kW     400원
-  101 ~   200kW     450원</t>
+    <t xml:space="preserve">    5 ~    49kW     330원
+   50 ~   200kW     450원</t>
   </si>
   <si>
     <t xml:space="preserve">    1 ~    49kW     250원
@@ -2704,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e81bd451-5c97-414e-a791-d423c63bfee0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67a5429f-2f5e-4f38-9ff8-8602d9f3ba91}">
   <dimension ref="A1:DB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -2778,7 +2775,7 @@
     <col min="80" max="80" width="29.571428571428573" customWidth="1"/>
     <col min="81" max="81" width="31.857142857142858" customWidth="1"/>
     <col min="82" max="82" width="30.714285714285715" customWidth="1"/>
-    <col min="83" max="83" width="29.571428571428573" customWidth="1"/>
+    <col min="83" max="83" width="39.857142857142854" customWidth="1"/>
     <col min="84" max="84" width="30.714285714285715" customWidth="1"/>
     <col min="85" max="85" width="31.285714285714285" customWidth="1"/>
     <col min="86" max="86" width="29.571428571428573" customWidth="1"/>
@@ -2793,8 +2790,8 @@
     <col min="95" max="95" width="31.285714285714285" customWidth="1"/>
     <col min="96" max="96" width="30.714285714285715" customWidth="1"/>
     <col min="97" max="97" width="31.285714285714285" customWidth="1"/>
-    <col min="98" max="99" width="30.714285714285715" customWidth="1"/>
-    <col min="100" max="100" width="29.571428571428573" customWidth="1"/>
+    <col min="98" max="98" width="30.714285714285715" customWidth="1"/>
+    <col min="99" max="100" width="29.571428571428573" customWidth="1"/>
     <col min="101" max="101" width="30.714285714285715" customWidth="1"/>
     <col min="102" max="102" width="31.285714285714285" customWidth="1"/>
     <col min="103" max="104" width="30.714285714285715" customWidth="1"/>
@@ -7237,7 +7234,7 @@
         <v>109</v>
       </c>
       <c r="CN14" s="3" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="CO14" s="3" t="s">
         <v>109</v>
@@ -31963,7 +31960,7 @@
         <v>109</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>171</v>

--- a/src/main/resources/xls/charging_roaming_fee.xlsx
+++ b/src/main/resources/xls/charging_roaming_fee.xlsx
@@ -2701,7 +2701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67a5429f-2f5e-4f38-9ff8-8602d9f3ba91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e8532051-b901-4514-baf8-9d65f3297ad8}">
   <dimension ref="A1:DB106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
